--- a/tables/table2a.xlsx
+++ b/tables/table2a.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -49,8 +54,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +67,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -401,12 +412,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
@@ -448,31 +467,31 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="D2" s="2">
-        <v>0.933</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="E2" s="2">
-        <v>0.934</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="F2" s="2">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="G2" s="2">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="H2" s="2">
-        <v>0.936</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="I2" s="2">
-        <v>0.927</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="J2" s="2">
-        <v>0.948</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="K2" s="2">
-        <v>0.947</v>
+        <v>0.94699999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -480,34 +499,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>0.902</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="E3" s="2">
-        <v>0.931</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="F3" s="2">
         <v>0.93</v>
       </c>
       <c r="G3" s="2">
-        <v>0.946</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="H3" s="2">
         <v>0.94</v>
       </c>
       <c r="I3" s="2">
-        <v>0.903</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="J3" s="2">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="K3" s="2">
-        <v>0.944</v>
+        <v>0.94399999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -515,34 +534,34 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>0.933</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="C4" s="2">
-        <v>0.902</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>0.894</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="F4" s="2">
-        <v>0.909</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="G4" s="2">
-        <v>0.905</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="H4" s="2">
-        <v>0.914</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="I4" s="2">
-        <v>0.978</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="J4" s="2">
-        <v>0.902</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="K4" s="2">
-        <v>0.911</v>
+        <v>0.91100000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -550,34 +569,34 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>0.934</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="C5" s="2">
-        <v>0.931</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="D5" s="2">
-        <v>0.894</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>0.929</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="G5" s="2">
-        <v>0.944</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="H5" s="2">
-        <v>0.935</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="I5" s="2">
-        <v>0.894</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="J5" s="2">
-        <v>0.948</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="K5" s="2">
-        <v>0.949</v>
+        <v>0.94899999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -585,34 +604,34 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="C6" s="2">
         <v>0.93</v>
       </c>
       <c r="D6" s="2">
-        <v>0.909</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="E6" s="2">
-        <v>0.929</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="H6" s="2">
-        <v>0.933</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="I6" s="2">
-        <v>0.903</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="J6" s="2">
-        <v>0.931</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="K6" s="2">
-        <v>0.943</v>
+        <v>0.94299999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -620,31 +639,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="C7" s="2">
-        <v>0.946</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D7" s="2">
-        <v>0.905</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="E7" s="2">
-        <v>0.944</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="F7" s="2">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="I7" s="2">
-        <v>0.898</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="J7" s="2">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="K7" s="2">
         <v>0.96</v>
@@ -655,34 +674,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>0.936</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="C8" s="2">
         <v>0.94</v>
       </c>
       <c r="D8" s="2">
-        <v>0.914</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="E8" s="2">
-        <v>0.935</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="F8" s="2">
-        <v>0.933</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="G8" s="2">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
       <c r="I8" s="2">
-        <v>0.914</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="J8" s="2">
         <v>0.95</v>
       </c>
       <c r="K8" s="2">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -690,34 +709,34 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.927</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="C9" s="2">
-        <v>0.903</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="D9" s="2">
-        <v>0.978</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="E9" s="2">
-        <v>0.894</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="F9" s="2">
-        <v>0.903</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="G9" s="2">
-        <v>0.898</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="H9" s="2">
-        <v>0.914</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" s="2">
-        <v>0.902</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="K9" s="2">
-        <v>0.903</v>
+        <v>0.90300000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -725,34 +744,34 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.948</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="C10" s="2">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="D10" s="2">
-        <v>0.902</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="E10" s="2">
-        <v>0.948</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="F10" s="2">
-        <v>0.931</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="G10" s="2">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="H10" s="2">
         <v>0.95</v>
       </c>
       <c r="I10" s="2">
-        <v>0.902</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
       </c>
       <c r="K10" s="2">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -760,37 +779,44 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.947</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="C11" s="2">
-        <v>0.944</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="D11" s="2">
-        <v>0.911</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="E11" s="2">
-        <v>0.949</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="F11" s="2">
-        <v>0.943</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="G11" s="2">
         <v>0.96</v>
       </c>
       <c r="H11" s="2">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="I11" s="2">
-        <v>0.903</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="J11" s="2">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>